--- a/spreadsheets/new/GSE110499.0.xlsx
+++ b/spreadsheets/new/GSE110499.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D3D33-3461-204B-94E5-8598AD261247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="16240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="1931">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -5813,13 +5819,16 @@
   </si>
   <si>
     <t>Ascites</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5856,6 +5865,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5902,7 +5919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5934,9 +5951,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5968,6 +6003,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6143,75 +6196,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6390,7 +6439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6569,7 +6618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6727,7 +6776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6906,12 +6955,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -6940,7 +6989,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -6969,7 +7018,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -6998,7 +7047,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -7027,7 +7076,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -7056,7 +7105,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -7085,7 +7134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -7114,7 +7163,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>235</v>
       </c>
@@ -7143,7 +7192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -7172,7 +7221,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>241</v>
       </c>
@@ -7201,7 +7250,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -7230,7 +7279,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -7259,7 +7308,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -7288,7 +7337,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>253</v>
       </c>
@@ -7317,7 +7366,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>256</v>
       </c>
@@ -7346,7 +7395,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>259</v>
       </c>
@@ -7375,7 +7424,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -7404,7 +7453,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>265</v>
       </c>
@@ -7433,7 +7482,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>268</v>
       </c>
@@ -7462,7 +7511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -7491,7 +7540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -7520,7 +7569,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -7549,7 +7598,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>280</v>
       </c>
@@ -7578,7 +7627,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>283</v>
       </c>
@@ -7607,7 +7656,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -7636,7 +7685,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -7665,7 +7714,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -7694,7 +7743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -7723,7 +7772,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -7752,7 +7801,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>302</v>
       </c>
@@ -7781,7 +7830,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -7810,7 +7859,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>308</v>
       </c>
@@ -7839,7 +7888,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -7868,7 +7917,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -7897,7 +7946,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>317</v>
       </c>
@@ -7926,7 +7975,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>320</v>
       </c>
@@ -7955,7 +8004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -7984,7 +8033,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -8013,7 +8062,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -8042,7 +8091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -8071,7 +8120,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8100,7 +8149,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -8129,7 +8178,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>341</v>
       </c>
@@ -8158,7 +8207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>344</v>
       </c>
@@ -8187,7 +8236,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>347</v>
       </c>
@@ -8216,7 +8265,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -8245,7 +8294,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -8274,7 +8323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>357</v>
       </c>
@@ -8303,7 +8352,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>360</v>
       </c>
@@ -8332,7 +8381,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>363</v>
       </c>
@@ -8361,7 +8410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>366</v>
       </c>
@@ -8390,7 +8439,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>369</v>
       </c>
@@ -8419,7 +8468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>372</v>
       </c>
@@ -8448,7 +8497,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -8477,7 +8526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>378</v>
       </c>
@@ -8506,7 +8555,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>381</v>
       </c>
@@ -8535,7 +8584,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>384</v>
       </c>
@@ -8564,7 +8613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>387</v>
       </c>
@@ -8593,7 +8642,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>390</v>
       </c>
@@ -8622,7 +8671,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>393</v>
       </c>
@@ -8651,7 +8700,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>396</v>
       </c>
@@ -8680,7 +8729,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>399</v>
       </c>
@@ -8709,7 +8758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>402</v>
       </c>
@@ -8738,7 +8787,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>405</v>
       </c>
@@ -8767,7 +8816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>408</v>
       </c>
@@ -8796,7 +8845,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>411</v>
       </c>
@@ -8825,7 +8874,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>414</v>
       </c>
@@ -8854,7 +8903,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -8883,7 +8932,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>420</v>
       </c>
@@ -8912,7 +8961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -8941,7 +8990,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>426</v>
       </c>
@@ -8970,7 +9019,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>429</v>
       </c>
@@ -8999,7 +9048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>432</v>
       </c>
@@ -9028,7 +9077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>435</v>
       </c>
@@ -9057,7 +9106,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -9086,7 +9135,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>441</v>
       </c>
@@ -9115,7 +9164,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>444</v>
       </c>
@@ -9144,7 +9193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>447</v>
       </c>
@@ -9173,7 +9222,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>450</v>
       </c>
@@ -9202,7 +9251,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>453</v>
       </c>
@@ -9231,7 +9280,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>456</v>
       </c>
@@ -9260,7 +9309,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>459</v>
       </c>
@@ -9289,7 +9338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>462</v>
       </c>
@@ -9318,7 +9367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>465</v>
       </c>
@@ -9347,7 +9396,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>468</v>
       </c>
@@ -9376,7 +9425,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>471</v>
       </c>
@@ -9405,7 +9454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>474</v>
       </c>
@@ -9434,7 +9483,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>477</v>
       </c>
@@ -9463,7 +9512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>480</v>
       </c>
@@ -9492,7 +9541,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>483</v>
       </c>
@@ -9521,7 +9570,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>486</v>
       </c>
@@ -9550,7 +9599,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -9579,7 +9628,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>492</v>
       </c>
@@ -9608,7 +9657,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>495</v>
       </c>
@@ -9637,7 +9686,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>498</v>
       </c>
@@ -9666,7 +9715,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>501</v>
       </c>
@@ -9695,7 +9744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>504</v>
       </c>
@@ -9724,7 +9773,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>507</v>
       </c>
@@ -9753,7 +9802,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>510</v>
       </c>
@@ -9782,7 +9831,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>513</v>
       </c>
@@ -9811,7 +9860,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>516</v>
       </c>
@@ -9840,7 +9889,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>519</v>
       </c>
@@ -9869,7 +9918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>522</v>
       </c>
@@ -9898,7 +9947,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>525</v>
       </c>
@@ -9927,7 +9976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>528</v>
       </c>
@@ -9956,7 +10005,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>531</v>
       </c>
@@ -9985,7 +10034,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>534</v>
       </c>
@@ -10014,7 +10063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>537</v>
       </c>
@@ -10043,7 +10092,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>540</v>
       </c>
@@ -10072,7 +10121,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>543</v>
       </c>
@@ -10101,7 +10150,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>546</v>
       </c>
@@ -10130,7 +10179,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>549</v>
       </c>
@@ -10159,7 +10208,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>553</v>
       </c>
@@ -10188,7 +10237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>556</v>
       </c>
@@ -10217,7 +10266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>559</v>
       </c>
@@ -10246,7 +10295,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>562</v>
       </c>
@@ -10275,7 +10324,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>565</v>
       </c>
@@ -10304,7 +10353,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -10333,7 +10382,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>571</v>
       </c>
@@ -10362,7 +10411,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>574</v>
       </c>
@@ -10391,7 +10440,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>577</v>
       </c>
@@ -10420,7 +10469,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>580</v>
       </c>
@@ -10449,7 +10498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>583</v>
       </c>
@@ -10478,7 +10527,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>586</v>
       </c>
@@ -10507,7 +10556,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>589</v>
       </c>
@@ -10536,7 +10585,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>592</v>
       </c>
@@ -10565,7 +10614,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>595</v>
       </c>
@@ -10594,7 +10643,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>598</v>
       </c>
@@ -10623,7 +10672,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>601</v>
       </c>
@@ -10652,7 +10701,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>604</v>
       </c>
@@ -10681,7 +10730,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>607</v>
       </c>
@@ -10710,7 +10759,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>610</v>
       </c>
@@ -10739,7 +10788,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>613</v>
       </c>
@@ -10768,7 +10817,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>616</v>
       </c>
@@ -10797,7 +10846,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>619</v>
       </c>
@@ -10826,7 +10875,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>622</v>
       </c>
@@ -10855,7 +10904,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>625</v>
       </c>
@@ -10884,7 +10933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>628</v>
       </c>
@@ -10913,7 +10962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>631</v>
       </c>
@@ -10942,7 +10991,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>634</v>
       </c>
@@ -10971,7 +11020,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>637</v>
       </c>
@@ -11000,7 +11049,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>640</v>
       </c>
@@ -11029,7 +11078,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>643</v>
       </c>
@@ -11058,7 +11107,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>646</v>
       </c>
@@ -11087,7 +11136,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>649</v>
       </c>
@@ -11116,7 +11165,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>652</v>
       </c>
@@ -11145,7 +11194,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>655</v>
       </c>
@@ -11174,7 +11223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>658</v>
       </c>
@@ -11203,7 +11252,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>661</v>
       </c>
@@ -11232,7 +11281,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>664</v>
       </c>
@@ -11261,7 +11310,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>667</v>
       </c>
@@ -11290,7 +11339,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>670</v>
       </c>
@@ -11319,7 +11368,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>673</v>
       </c>
@@ -11348,7 +11397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>676</v>
       </c>
@@ -11377,7 +11426,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>679</v>
       </c>
@@ -11406,7 +11455,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>682</v>
       </c>
@@ -11435,7 +11484,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>685</v>
       </c>
@@ -11464,7 +11513,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>688</v>
       </c>
@@ -11493,7 +11542,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>691</v>
       </c>
@@ -11522,7 +11571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>694</v>
       </c>
@@ -11551,7 +11600,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>697</v>
       </c>
@@ -11580,7 +11629,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>700</v>
       </c>
@@ -11609,7 +11658,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>703</v>
       </c>
@@ -11638,7 +11687,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>706</v>
       </c>
@@ -11667,7 +11716,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>709</v>
       </c>
@@ -11696,7 +11745,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>712</v>
       </c>
@@ -11725,7 +11774,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>715</v>
       </c>
@@ -11754,7 +11803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>718</v>
       </c>
@@ -11783,7 +11832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -11812,7 +11861,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>724</v>
       </c>
@@ -11841,7 +11890,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>727</v>
       </c>
@@ -11870,7 +11919,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>730</v>
       </c>
@@ -11899,7 +11948,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>733</v>
       </c>
@@ -11928,7 +11977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>736</v>
       </c>
@@ -11963,76 +12012,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -12214,7 +12260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -12396,7 +12442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -12557,7 +12603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -12739,12 +12785,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -12758,7 +12804,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -12772,7 +12818,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -12786,7 +12832,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>552</v>
       </c>
@@ -12800,7 +12846,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -12820,93 +12866,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>742</v>
       </c>
@@ -13139,7 +13183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13372,7 +13416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13587,7 +13631,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>846</v>
       </c>
@@ -13820,12 +13864,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>907</v>
       </c>
@@ -13836,7 +13880,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>909</v>
       </c>
@@ -13847,7 +13891,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>910</v>
       </c>
@@ -13864,28 +13908,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -13923,7 +13965,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -13961,7 +14003,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -13993,7 +14035,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -14031,12 +14073,12 @@
         <v>946</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -14044,7 +14086,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>741</v>
       </c>
@@ -14058,67 +14100,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="678.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="678.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>947</v>
       </c>
@@ -14273,7 +14313,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -14428,7 +14468,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -14577,7 +14617,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1037</v>
       </c>
@@ -14732,12 +14772,12 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1088</v>
       </c>
@@ -14754,25 +14794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="701.7109375" customWidth="1"/>
-    <col min="4" max="4" width="236.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="701.6640625" customWidth="1"/>
+    <col min="4" max="4" width="236.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1091</v>
       </c>
@@ -14801,7 +14840,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1100</v>
       </c>
@@ -14830,7 +14869,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1109</v>
       </c>
@@ -14859,7 +14898,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1118</v>
       </c>
@@ -14888,12 +14927,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1127</v>
       </c>
@@ -14919,28 +14958,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1133</v>
       </c>
@@ -14978,7 +15017,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1145</v>
       </c>
@@ -15016,7 +15055,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1155</v>
       </c>
@@ -15054,7 +15093,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1166</v>
       </c>
@@ -15092,12 +15131,12 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1178</v>
       </c>
@@ -15120,21 +15159,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1183</v>
       </c>
@@ -15151,7 +15190,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1187</v>
       </c>
@@ -15168,7 +15207,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1192</v>
       </c>
@@ -15185,7 +15224,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1197</v>
       </c>
@@ -15202,12 +15241,12 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1202</v>
       </c>
@@ -15218,46 +15257,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD355"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1203</v>
       </c>
@@ -15349,7 +15386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1215</v>
       </c>
@@ -15441,7 +15478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1224</v>
       </c>
@@ -15521,7 +15558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1234</v>
       </c>
@@ -15613,12 +15650,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1246</v>
       </c>
@@ -15641,7 +15678,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1251</v>
       </c>
@@ -15664,7 +15701,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1253</v>
       </c>
@@ -15687,7 +15724,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1255</v>
       </c>
@@ -15710,7 +15747,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1256</v>
       </c>
@@ -15733,7 +15770,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1258</v>
       </c>
@@ -15756,7 +15793,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1259</v>
       </c>
@@ -15779,7 +15816,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1261</v>
       </c>
@@ -15802,7 +15839,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1262</v>
       </c>
@@ -15825,7 +15862,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1264</v>
       </c>
@@ -15848,7 +15885,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1265</v>
       </c>
@@ -15871,7 +15908,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1267</v>
       </c>
@@ -15894,7 +15931,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1268</v>
       </c>
@@ -15917,7 +15954,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1270</v>
       </c>
@@ -15940,7 +15977,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1271</v>
       </c>
@@ -15963,7 +16000,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1273</v>
       </c>
@@ -15986,7 +16023,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1274</v>
       </c>
@@ -16009,7 +16046,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1276</v>
       </c>
@@ -16032,7 +16069,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1277</v>
       </c>
@@ -16055,7 +16092,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1279</v>
       </c>
@@ -16078,7 +16115,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1280</v>
       </c>
@@ -16101,7 +16138,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1282</v>
       </c>
@@ -16124,7 +16161,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1283</v>
       </c>
@@ -16147,7 +16184,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1285</v>
       </c>
@@ -16170,7 +16207,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1286</v>
       </c>
@@ -16193,7 +16230,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1288</v>
       </c>
@@ -16216,7 +16253,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1289</v>
       </c>
@@ -16239,7 +16276,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1291</v>
       </c>
@@ -16262,7 +16299,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1292</v>
       </c>
@@ -16285,7 +16322,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1294</v>
       </c>
@@ -16308,7 +16345,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1295</v>
       </c>
@@ -16331,7 +16368,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1297</v>
       </c>
@@ -16354,7 +16391,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1298</v>
       </c>
@@ -16377,7 +16414,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1300</v>
       </c>
@@ -16400,7 +16437,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1301</v>
       </c>
@@ -16423,7 +16460,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1303</v>
       </c>
@@ -16446,7 +16483,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1304</v>
       </c>
@@ -16469,7 +16506,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1306</v>
       </c>
@@ -16492,7 +16529,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1307</v>
       </c>
@@ -16515,7 +16552,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1309</v>
       </c>
@@ -16538,7 +16575,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1310</v>
       </c>
@@ -16561,7 +16598,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1312</v>
       </c>
@@ -16584,7 +16621,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1313</v>
       </c>
@@ -16607,7 +16644,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1315</v>
       </c>
@@ -16630,7 +16667,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1316</v>
       </c>
@@ -16653,7 +16690,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1318</v>
       </c>
@@ -16676,7 +16713,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1319</v>
       </c>
@@ -16699,7 +16736,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1321</v>
       </c>
@@ -16722,7 +16759,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1322</v>
       </c>
@@ -16745,7 +16782,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1324</v>
       </c>
@@ -16768,7 +16805,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1325</v>
       </c>
@@ -16791,7 +16828,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1327</v>
       </c>
@@ -16814,7 +16851,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1328</v>
       </c>
@@ -16837,7 +16874,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1330</v>
       </c>
@@ -16860,7 +16897,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1331</v>
       </c>
@@ -16883,7 +16920,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1333</v>
       </c>
@@ -16906,7 +16943,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1334</v>
       </c>
@@ -16929,7 +16966,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1336</v>
       </c>
@@ -16952,7 +16989,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1337</v>
       </c>
@@ -16975,7 +17012,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1339</v>
       </c>
@@ -16998,7 +17035,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1340</v>
       </c>
@@ -17021,7 +17058,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1342</v>
       </c>
@@ -17044,7 +17081,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1343</v>
       </c>
@@ -17067,7 +17104,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1345</v>
       </c>
@@ -17090,7 +17127,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1346</v>
       </c>
@@ -17113,7 +17150,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1348</v>
       </c>
@@ -17136,7 +17173,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1349</v>
       </c>
@@ -17159,7 +17196,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1351</v>
       </c>
@@ -17182,7 +17219,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1352</v>
       </c>
@@ -17205,7 +17242,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1354</v>
       </c>
@@ -17228,7 +17265,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1355</v>
       </c>
@@ -17251,7 +17288,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1357</v>
       </c>
@@ -17274,7 +17311,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1358</v>
       </c>
@@ -17297,7 +17334,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1360</v>
       </c>
@@ -17320,7 +17357,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1361</v>
       </c>
@@ -17343,7 +17380,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1363</v>
       </c>
@@ -17366,7 +17403,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1364</v>
       </c>
@@ -17389,7 +17426,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1366</v>
       </c>
@@ -17412,7 +17449,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1367</v>
       </c>
@@ -17435,7 +17472,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1369</v>
       </c>
@@ -17458,7 +17495,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1370</v>
       </c>
@@ -17481,7 +17518,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1372</v>
       </c>
@@ -17504,7 +17541,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1373</v>
       </c>
@@ -17527,7 +17564,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1375</v>
       </c>
@@ -17550,7 +17587,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1376</v>
       </c>
@@ -17573,7 +17610,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1378</v>
       </c>
@@ -17596,7 +17633,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1379</v>
       </c>
@@ -17619,7 +17656,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1381</v>
       </c>
@@ -17642,7 +17679,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1382</v>
       </c>
@@ -17665,7 +17702,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1384</v>
       </c>
@@ -17688,7 +17725,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1385</v>
       </c>
@@ -17711,7 +17748,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1387</v>
       </c>
@@ -17734,7 +17771,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1388</v>
       </c>
@@ -17757,7 +17794,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1390</v>
       </c>
@@ -17780,7 +17817,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1391</v>
       </c>
@@ -17803,7 +17840,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1393</v>
       </c>
@@ -17826,7 +17863,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1394</v>
       </c>
@@ -17849,7 +17886,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1396</v>
       </c>
@@ -17872,7 +17909,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1397</v>
       </c>
@@ -17895,7 +17932,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1399</v>
       </c>
@@ -17918,7 +17955,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1400</v>
       </c>
@@ -17941,7 +17978,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1402</v>
       </c>
@@ -17964,7 +18001,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1403</v>
       </c>
@@ -17987,7 +18024,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1405</v>
       </c>
@@ -18010,7 +18047,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -18033,7 +18070,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1408</v>
       </c>
@@ -18056,7 +18093,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1409</v>
       </c>
@@ -18079,7 +18116,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1411</v>
       </c>
@@ -18102,7 +18139,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1412</v>
       </c>
@@ -18125,7 +18162,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1414</v>
       </c>
@@ -18148,7 +18185,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1415</v>
       </c>
@@ -18171,7 +18208,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1417</v>
       </c>
@@ -18194,7 +18231,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1418</v>
       </c>
@@ -18217,7 +18254,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1420</v>
       </c>
@@ -18240,7 +18277,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1421</v>
       </c>
@@ -18263,7 +18300,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1423</v>
       </c>
@@ -18286,7 +18323,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1424</v>
       </c>
@@ -18309,7 +18346,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1426</v>
       </c>
@@ -18332,7 +18369,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1427</v>
       </c>
@@ -18355,7 +18392,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1429</v>
       </c>
@@ -18378,7 +18415,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1430</v>
       </c>
@@ -18401,7 +18438,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1432</v>
       </c>
@@ -18424,7 +18461,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1433</v>
       </c>
@@ -18447,7 +18484,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1435</v>
       </c>
@@ -18470,7 +18507,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1436</v>
       </c>
@@ -18493,7 +18530,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1438</v>
       </c>
@@ -18516,7 +18553,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1439</v>
       </c>
@@ -18539,7 +18576,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1441</v>
       </c>
@@ -18562,7 +18599,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1442</v>
       </c>
@@ -18585,7 +18622,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1444</v>
       </c>
@@ -18608,7 +18645,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1445</v>
       </c>
@@ -18631,7 +18668,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1447</v>
       </c>
@@ -18654,7 +18691,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1448</v>
       </c>
@@ -18677,7 +18714,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1450</v>
       </c>
@@ -18700,7 +18737,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1451</v>
       </c>
@@ -18723,7 +18760,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1453</v>
       </c>
@@ -18746,7 +18783,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1454</v>
       </c>
@@ -18769,7 +18806,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1456</v>
       </c>
@@ -18792,7 +18829,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1457</v>
       </c>
@@ -18815,7 +18852,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1459</v>
       </c>
@@ -18838,7 +18875,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1460</v>
       </c>
@@ -18861,7 +18898,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1462</v>
       </c>
@@ -18884,7 +18921,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1463</v>
       </c>
@@ -18907,7 +18944,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1465</v>
       </c>
@@ -18930,7 +18967,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1466</v>
       </c>
@@ -18953,7 +18990,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1468</v>
       </c>
@@ -18976,7 +19013,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1469</v>
       </c>
@@ -18999,7 +19036,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1471</v>
       </c>
@@ -19022,7 +19059,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1472</v>
       </c>
@@ -19045,7 +19082,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1474</v>
       </c>
@@ -19068,7 +19105,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1475</v>
       </c>
@@ -19091,7 +19128,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1477</v>
       </c>
@@ -19114,7 +19151,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1478</v>
       </c>
@@ -19137,7 +19174,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1480</v>
       </c>
@@ -19160,7 +19197,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1481</v>
       </c>
@@ -19183,7 +19220,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1483</v>
       </c>
@@ -19206,7 +19243,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1484</v>
       </c>
@@ -19229,7 +19266,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1486</v>
       </c>
@@ -19252,7 +19289,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1487</v>
       </c>
@@ -19275,7 +19312,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1489</v>
       </c>
@@ -19298,7 +19335,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1490</v>
       </c>
@@ -19321,7 +19358,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1492</v>
       </c>
@@ -19344,7 +19381,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1493</v>
       </c>
@@ -19367,7 +19404,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1495</v>
       </c>
@@ -19390,7 +19427,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1496</v>
       </c>
@@ -19413,7 +19450,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1498</v>
       </c>
@@ -19436,7 +19473,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1499</v>
       </c>
@@ -19459,7 +19496,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1501</v>
       </c>
@@ -19482,7 +19519,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1502</v>
       </c>
@@ -19505,7 +19542,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1504</v>
       </c>
@@ -19528,7 +19565,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1505</v>
       </c>
@@ -19551,7 +19588,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1507</v>
       </c>
@@ -19574,7 +19611,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1508</v>
       </c>
@@ -19597,7 +19634,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1510</v>
       </c>
@@ -19620,7 +19657,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1511</v>
       </c>
@@ -19643,7 +19680,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1513</v>
       </c>
@@ -19666,7 +19703,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1514</v>
       </c>
@@ -19689,7 +19726,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1516</v>
       </c>
@@ -19712,7 +19749,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1517</v>
       </c>
@@ -19735,7 +19772,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1519</v>
       </c>
@@ -19758,7 +19795,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1520</v>
       </c>
@@ -19781,7 +19818,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1522</v>
       </c>
@@ -19804,7 +19841,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1523</v>
       </c>
@@ -19827,7 +19864,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1525</v>
       </c>
@@ -19850,7 +19887,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1526</v>
       </c>
@@ -19873,7 +19910,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1528</v>
       </c>
@@ -19896,7 +19933,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1529</v>
       </c>
@@ -19919,7 +19956,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1531</v>
       </c>
@@ -19942,7 +19979,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1532</v>
       </c>
@@ -19965,7 +20002,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1534</v>
       </c>
@@ -19988,7 +20025,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1535</v>
       </c>
@@ -20011,7 +20048,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1537</v>
       </c>
@@ -20034,7 +20071,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1538</v>
       </c>
@@ -20057,7 +20094,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1540</v>
       </c>
@@ -20080,7 +20117,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1541</v>
       </c>
@@ -20103,7 +20140,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1543</v>
       </c>
@@ -20126,7 +20163,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1544</v>
       </c>
@@ -20149,7 +20186,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1546</v>
       </c>
@@ -20172,7 +20209,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1547</v>
       </c>
@@ -20195,7 +20232,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1549</v>
       </c>
@@ -20218,7 +20255,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1550</v>
       </c>
@@ -20241,7 +20278,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1552</v>
       </c>
@@ -20264,7 +20301,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1553</v>
       </c>
@@ -20287,7 +20324,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1555</v>
       </c>
@@ -20310,7 +20347,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1556</v>
       </c>
@@ -20333,7 +20370,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1558</v>
       </c>
@@ -20356,7 +20393,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1559</v>
       </c>
@@ -20379,7 +20416,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1561</v>
       </c>
@@ -20402,7 +20439,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1562</v>
       </c>
@@ -20425,7 +20462,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1564</v>
       </c>
@@ -20448,7 +20485,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1565</v>
       </c>
@@ -20471,7 +20508,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1567</v>
       </c>
@@ -20494,7 +20531,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1568</v>
       </c>
@@ -20517,7 +20554,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1570</v>
       </c>
@@ -20540,7 +20577,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1571</v>
       </c>
@@ -20563,7 +20600,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1573</v>
       </c>
@@ -20586,7 +20623,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1574</v>
       </c>
@@ -20609,7 +20646,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1576</v>
       </c>
@@ -20632,7 +20669,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1577</v>
       </c>
@@ -20655,7 +20692,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1579</v>
       </c>
@@ -20678,7 +20715,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1580</v>
       </c>
@@ -20701,7 +20738,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1582</v>
       </c>
@@ -20724,7 +20761,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1583</v>
       </c>
@@ -20747,7 +20784,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1585</v>
       </c>
@@ -20770,7 +20807,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1586</v>
       </c>
@@ -20793,7 +20830,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1588</v>
       </c>
@@ -20816,7 +20853,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1589</v>
       </c>
@@ -20839,7 +20876,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1591</v>
       </c>
@@ -20862,7 +20899,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1592</v>
       </c>
@@ -20885,7 +20922,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1594</v>
       </c>
@@ -20908,7 +20945,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1595</v>
       </c>
@@ -20931,7 +20968,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1597</v>
       </c>
@@ -20954,7 +20991,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1598</v>
       </c>
@@ -20977,7 +21014,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1600</v>
       </c>
@@ -21000,7 +21037,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1601</v>
       </c>
@@ -21023,7 +21060,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1603</v>
       </c>
@@ -21046,7 +21083,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1604</v>
       </c>
@@ -21069,7 +21106,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1606</v>
       </c>
@@ -21092,7 +21129,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1607</v>
       </c>
@@ -21115,7 +21152,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1609</v>
       </c>
@@ -21138,7 +21175,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1610</v>
       </c>
@@ -21161,7 +21198,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1612</v>
       </c>
@@ -21184,7 +21221,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1613</v>
       </c>
@@ -21207,7 +21244,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1615</v>
       </c>
@@ -21230,7 +21267,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1616</v>
       </c>
@@ -21253,7 +21290,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1618</v>
       </c>
@@ -21276,7 +21313,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1619</v>
       </c>
@@ -21299,7 +21336,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1621</v>
       </c>
@@ -21322,7 +21359,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1622</v>
       </c>
@@ -21345,7 +21382,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1624</v>
       </c>
@@ -21368,7 +21405,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1625</v>
       </c>
@@ -21391,7 +21428,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1627</v>
       </c>
@@ -21414,7 +21451,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1628</v>
       </c>
@@ -21437,7 +21474,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1630</v>
       </c>
@@ -21460,7 +21497,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1631</v>
       </c>
@@ -21483,7 +21520,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1633</v>
       </c>
@@ -21506,7 +21543,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1634</v>
       </c>
@@ -21529,7 +21566,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1636</v>
       </c>
@@ -21552,7 +21589,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1637</v>
       </c>
@@ -21575,7 +21612,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1639</v>
       </c>
@@ -21598,7 +21635,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1640</v>
       </c>
@@ -21621,7 +21658,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1642</v>
       </c>
@@ -21644,7 +21681,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1643</v>
       </c>
@@ -21667,7 +21704,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1645</v>
       </c>
@@ -21690,7 +21727,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1646</v>
       </c>
@@ -21713,7 +21750,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1648</v>
       </c>
@@ -21736,7 +21773,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1649</v>
       </c>
@@ -21759,7 +21796,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1651</v>
       </c>
@@ -21782,7 +21819,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1652</v>
       </c>
@@ -21805,7 +21842,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1654</v>
       </c>
@@ -21828,7 +21865,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1655</v>
       </c>
@@ -21851,7 +21888,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1657</v>
       </c>
@@ -21874,7 +21911,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1658</v>
       </c>
@@ -21897,7 +21934,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1660</v>
       </c>
@@ -21920,7 +21957,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1661</v>
       </c>
@@ -21943,7 +21980,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1663</v>
       </c>
@@ -21966,7 +22003,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1664</v>
       </c>
@@ -21989,7 +22026,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1666</v>
       </c>
@@ -22012,7 +22049,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1667</v>
       </c>
@@ -22035,7 +22072,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1669</v>
       </c>
@@ -22058,7 +22095,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1670</v>
       </c>
@@ -22081,7 +22118,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1672</v>
       </c>
@@ -22104,7 +22141,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1673</v>
       </c>
@@ -22127,7 +22164,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1675</v>
       </c>
@@ -22150,7 +22187,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1676</v>
       </c>
@@ -22173,7 +22210,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1678</v>
       </c>
@@ -22196,7 +22233,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1679</v>
       </c>
@@ -22219,7 +22256,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1681</v>
       </c>
@@ -22242,7 +22279,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1682</v>
       </c>
@@ -22265,7 +22302,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1684</v>
       </c>
@@ -22288,7 +22325,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1685</v>
       </c>
@@ -22311,7 +22348,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1687</v>
       </c>
@@ -22334,7 +22371,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1688</v>
       </c>
@@ -22357,7 +22394,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1690</v>
       </c>
@@ -22380,7 +22417,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1691</v>
       </c>
@@ -22403,7 +22440,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1693</v>
       </c>
@@ -22426,7 +22463,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1694</v>
       </c>
@@ -22449,7 +22486,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1696</v>
       </c>
@@ -22472,7 +22509,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1697</v>
       </c>
@@ -22495,7 +22532,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1699</v>
       </c>
@@ -22518,7 +22555,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1700</v>
       </c>
@@ -22541,7 +22578,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1702</v>
       </c>
@@ -22564,7 +22601,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1703</v>
       </c>
@@ -22587,7 +22624,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1705</v>
       </c>
@@ -22610,7 +22647,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1706</v>
       </c>
@@ -22633,7 +22670,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1708</v>
       </c>
@@ -22656,7 +22693,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1709</v>
       </c>
@@ -22679,7 +22716,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1711</v>
       </c>
@@ -22702,7 +22739,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1712</v>
       </c>
@@ -22725,7 +22762,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1714</v>
       </c>
@@ -22748,7 +22785,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1715</v>
       </c>
@@ -22771,7 +22808,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1717</v>
       </c>
@@ -22794,7 +22831,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1718</v>
       </c>
@@ -22817,7 +22854,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1720</v>
       </c>
@@ -22840,7 +22877,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1721</v>
       </c>
@@ -22863,7 +22900,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1723</v>
       </c>
@@ -22886,7 +22923,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1724</v>
       </c>
@@ -22909,7 +22946,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1726</v>
       </c>
@@ -22932,7 +22969,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1727</v>
       </c>
@@ -22955,7 +22992,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1729</v>
       </c>
@@ -22978,7 +23015,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1730</v>
       </c>
@@ -23001,7 +23038,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1732</v>
       </c>
@@ -23024,7 +23061,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1733</v>
       </c>
@@ -23047,7 +23084,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1735</v>
       </c>
@@ -23070,7 +23107,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1736</v>
       </c>
@@ -23093,7 +23130,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1738</v>
       </c>
@@ -23116,7 +23153,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1739</v>
       </c>
@@ -23139,7 +23176,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1741</v>
       </c>
@@ -23162,7 +23199,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1742</v>
       </c>
@@ -23185,7 +23222,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1744</v>
       </c>
@@ -23208,7 +23245,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1745</v>
       </c>
@@ -23231,7 +23268,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1747</v>
       </c>
@@ -23254,7 +23291,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1748</v>
       </c>
@@ -23277,7 +23314,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1750</v>
       </c>
@@ -23300,7 +23337,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1751</v>
       </c>
@@ -23323,7 +23360,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1753</v>
       </c>
@@ -23346,7 +23383,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1754</v>
       </c>
@@ -23369,7 +23406,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1756</v>
       </c>
@@ -23392,7 +23429,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1757</v>
       </c>
@@ -23415,7 +23452,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1759</v>
       </c>
@@ -23438,7 +23475,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1760</v>
       </c>
@@ -23461,7 +23498,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1762</v>
       </c>
@@ -23484,7 +23521,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1763</v>
       </c>
@@ -23507,7 +23544,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1765</v>
       </c>
@@ -23530,7 +23567,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1766</v>
       </c>
@@ -23553,7 +23590,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1768</v>
       </c>
@@ -23576,7 +23613,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1769</v>
       </c>
@@ -23599,7 +23636,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1771</v>
       </c>
@@ -23622,7 +23659,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1772</v>
       </c>
@@ -23645,7 +23682,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1774</v>
       </c>
@@ -23674,34 +23711,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="512.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="512.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1214</v>
       </c>
@@ -23757,7 +23796,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -23813,7 +23852,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -23863,7 +23902,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1245</v>
       </c>
@@ -23919,12 +23958,12 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1250</v>
       </c>
@@ -23933,6 +23972,9 @@
       </c>
       <c r="G6" t="s">
         <v>1822</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1930</v>
       </c>
     </row>
   </sheetData>
